--- a/ParserCodes/slr_analysis.xlsx
+++ b/ParserCodes/slr_analysis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FIRST Sets" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="FOLLOW Sets" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="States" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ACTION Table" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GOTO Table" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Transitions" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FIRST Sets" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FOLLOW Sets" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="States" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACTION Table" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GOTO Table" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transitions" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>arg → NUMBER | STRING</t>
+          <t>arg → NUMBER</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>args</t>
+          <t>arg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>args → arg ("," arg)*</t>
+          <t>arg → STRING</t>
         </is>
       </c>
     </row>
@@ -672,12 +672,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>call_stmt</t>
+          <t>args</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>call_stmt → ID "(" args? ")" ";"</t>
+          <t>args → arg ("," arg)*</t>
         </is>
       </c>
     </row>
@@ -687,12 +687,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>for_stmt</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
+          <t>call_stmt → ID "(" args? ")" ";"</t>
         </is>
       </c>
     </row>
@@ -702,12 +702,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>program → stmt_list</t>
+          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
         </is>
       </c>
     </row>
@@ -717,12 +717,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>stmt</t>
+          <t>program</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>stmt → for_stmt</t>
+          <t>program → stmt_list</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>stmt → call_stmt</t>
+          <t>stmt → for_stmt</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>stmt_list</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>stmt_list → stmt</t>
+          <t>stmt → call_stmt</t>
         </is>
       </c>
     </row>
@@ -766,6 +766,21 @@
         </is>
       </c>
       <c r="C11" t="inlineStr">
+        <is>
+          <t>stmt_list → stmt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>stmt_list</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>stmt_list → stmt stmt_list</t>
         </is>
@@ -820,7 +835,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NUMBER, STRING</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -837,7 +852,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NUMBER, STRING</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1166,17 +1181,77 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
+          <t>[call_stmt → ID · "(" args? ")" ";"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>State 2</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>[stmt → for_stmt ·]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>State 3</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>[stmt → call_stmt ·]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>State 4</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>State 5</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>[program → stmt_list ·]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>State 6</t>
+        </is>
+      </c>
+      <c r="B8" s="11" t="inlineStr">
+        <is>
           <t>[programBar → program ·]</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="120" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>State 2</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
+    <row r="9" ht="120" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>State 7</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
         <is>
           <t>[call_stmt → · ID "(" args? ")" ";"]
 [for_stmt → · "for" ID "=" NUMBER "to" NUMBER ";"]
@@ -1189,66 +1264,6 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>State 3</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";"]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>State 4</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>[call_stmt → ID · "(" args? ")" ";"]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>State 5</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>[stmt → for_stmt ·]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>State 6</t>
-        </is>
-      </c>
-      <c r="B8" s="11" t="inlineStr">
-        <is>
-          <t>[stmt → call_stmt ·]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>State 7</t>
-        </is>
-      </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>[program → stmt_list ·]</t>
-        </is>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
@@ -1257,7 +1272,7 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>[stmt_list → stmt stmt_list ·]</t>
+          <t>[call_stmt → ID "(" · args? ")" ";"]</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1296,7 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>[call_stmt → ID "(" · args? ")" ";"]</t>
+          <t>[stmt_list → stmt stmt_list ·]</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1308,7 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>[for_stmt → "for" ID "=" · NUMBER "to" NUMBER ";"]</t>
+          <t>[call_stmt → ID "(" args? · ")" ";"]</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1320,7 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>[call_stmt → ID "(" args? · ")" ";"]</t>
+          <t>[for_stmt → "for" ID "=" · NUMBER "to" NUMBER ";"]</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1332,7 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>[for_stmt → "for" ID "=" NUMBER · "to" NUMBER ";"]</t>
+          <t>[call_stmt → ID "(" args? ")" · ";"]</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1344,7 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>[call_stmt → ID "(" args? ")" · ";"]</t>
+          <t>[for_stmt → "for" ID "=" NUMBER · "to" NUMBER ";"]</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1356,7 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>[for_stmt → "for" ID "=" NUMBER "to" · NUMBER ";"]</t>
+          <t>[call_stmt → ID "(" args? ")" ";" ·]</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1368,7 @@
       </c>
       <c r="B18" s="11" t="inlineStr">
         <is>
-          <t>[call_stmt → ID "(" args? ")" ";" ·]</t>
+          <t>[for_stmt → "for" ID "=" NUMBER "to" · NUMBER ";"]</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1414,7 +1429,6 @@
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1488,11 +1502,6 @@
           <t>args?</t>
         </is>
       </c>
-      <c r="O1" s="12" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
@@ -1520,7 +1529,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>s3</t>
+          <t>s4</t>
         </is>
       </c>
       <c r="G2" s="13" t="inlineStr">
@@ -1540,7 +1549,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>s4</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="K2" s="13" t="inlineStr">
@@ -1559,11 +1568,6 @@
         </is>
       </c>
       <c r="N2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O2" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1573,9 +1577,9 @@
       <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>s8</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -1603,9 +1607,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>accept</t>
+      <c r="H3" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I3" s="13" t="inlineStr">
@@ -1634,11 +1638,6 @@
         </is>
       </c>
       <c r="N3" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O3" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1670,7 +1669,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>s3</t>
+          <t>r6</t>
         </is>
       </c>
       <c r="G4" s="13" t="inlineStr">
@@ -1680,7 +1679,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>r7</t>
+          <t>r6</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -1690,7 +1689,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>s4</t>
+          <t>r6</t>
         </is>
       </c>
       <c r="K4" s="13" t="inlineStr">
@@ -1709,11 +1708,6 @@
         </is>
       </c>
       <c r="N4" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O4" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1743,9 +1737,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
       <c r="G5" s="13" t="inlineStr">
@@ -1753,9 +1747,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
       <c r="I5" s="13" t="inlineStr">
@@ -1765,7 +1759,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>r7</t>
         </is>
       </c>
       <c r="K5" s="13" t="inlineStr">
@@ -1784,11 +1778,6 @@
         </is>
       </c>
       <c r="N5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O5" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1798,9 +1787,9 @@
       <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s10</t>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -1838,9 +1827,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J6" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s9</t>
         </is>
       </c>
       <c r="K6" s="13" t="inlineStr">
@@ -1859,11 +1848,6 @@
         </is>
       </c>
       <c r="N6" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O6" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1893,29 +1877,29 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>r5</t>
         </is>
       </c>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>r5</t>
-        </is>
-      </c>
       <c r="I7" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>r5</t>
+      <c r="J7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K7" s="13" t="inlineStr">
@@ -1934,11 +1918,6 @@
         </is>
       </c>
       <c r="N7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O7" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1968,9 +1947,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>r6</t>
+      <c r="F8" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G8" s="13" t="inlineStr">
@@ -1980,7 +1959,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>accept</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -1988,9 +1967,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>r6</t>
+      <c r="J8" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K8" s="13" t="inlineStr">
@@ -2009,11 +1988,6 @@
         </is>
       </c>
       <c r="N8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O8" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2043,9 +2017,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F9" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s4</t>
         </is>
       </c>
       <c r="G9" s="13" t="inlineStr">
@@ -2055,7 +2029,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>r4</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="I9" s="13" t="inlineStr">
@@ -2063,9 +2037,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J9" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>s1</t>
         </is>
       </c>
       <c r="K9" s="13" t="inlineStr">
@@ -2084,11 +2058,6 @@
         </is>
       </c>
       <c r="N9" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O9" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2128,9 +2097,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>r8</t>
+      <c r="H10" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" s="13" t="inlineStr">
@@ -2158,14 +2127,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>s11</t>
         </is>
       </c>
     </row>
@@ -2190,7 +2154,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>s12</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
@@ -2234,11 +2198,6 @@
         </is>
       </c>
       <c r="N11" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O11" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2278,9 +2237,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>r9</t>
         </is>
       </c>
       <c r="I12" s="13" t="inlineStr">
@@ -2308,12 +2267,7 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>s12</t>
-        </is>
-      </c>
-      <c r="O12" s="13" t="inlineStr">
+      <c r="N12" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2328,9 +2282,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>s13</t>
         </is>
       </c>
       <c r="D13" s="13" t="inlineStr">
@@ -2368,9 +2322,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>s13</t>
+      <c r="K13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L13" s="13" t="inlineStr">
@@ -2384,11 +2338,6 @@
         </is>
       </c>
       <c r="N13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O13" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2403,51 +2352,51 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>s14</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="L14" s="13" t="inlineStr">
         <is>
           <t>-</t>
@@ -2459,11 +2408,6 @@
         </is>
       </c>
       <c r="N14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O14" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2483,9 +2427,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D15" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>s15</t>
         </is>
       </c>
       <c r="E15" s="13" t="inlineStr">
@@ -2498,9 +2442,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>s15</t>
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="H15" s="13" t="inlineStr">
@@ -2534,11 +2478,6 @@
         </is>
       </c>
       <c r="N15" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O15" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2558,26 +2497,26 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>s16</t>
         </is>
       </c>
-      <c r="E16" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="H16" s="13" t="inlineStr">
         <is>
           <t>-</t>
@@ -2609,11 +2548,6 @@
         </is>
       </c>
       <c r="N16" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O16" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2643,9 +2577,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>r3</t>
         </is>
       </c>
       <c r="G17" s="13" t="inlineStr">
@@ -2653,9 +2587,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>r3</t>
         </is>
       </c>
       <c r="I17" s="13" t="inlineStr">
@@ -2663,14 +2597,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>s17</t>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="K17" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L17" s="13" t="inlineStr">
@@ -2684,11 +2618,6 @@
         </is>
       </c>
       <c r="N17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O17" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2718,9 +2647,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>r2</t>
+      <c r="F18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G18" s="13" t="inlineStr">
@@ -2728,9 +2657,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>r2</t>
+      <c r="H18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I18" s="13" t="inlineStr">
@@ -2738,14 +2667,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>r2</t>
-        </is>
-      </c>
-      <c r="K18" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>s17</t>
         </is>
       </c>
       <c r="L18" s="13" t="inlineStr">
@@ -2759,11 +2688,6 @@
         </is>
       </c>
       <c r="N18" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O18" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2838,11 +2762,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O19" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
@@ -2870,7 +2789,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="G20" s="13" t="inlineStr">
@@ -2880,7 +2799,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="I20" s="13" t="inlineStr">
@@ -2890,7 +2809,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="K20" s="13" t="inlineStr">
@@ -2909,11 +2828,6 @@
         </is>
       </c>
       <c r="N20" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O20" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3011,24 +2925,24 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
         <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3090,11 +3004,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
+      <c r="D4" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F4" s="13" t="inlineStr">
         <is>
@@ -3106,11 +3024,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
+      <c r="H4" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -3307,15 +3229,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
       </c>
       <c r="F9" s="13" t="inlineStr">
         <is>
@@ -3327,15 +3245,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H9" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -3884,7 +3798,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3897,7 +3811,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3910,7 +3824,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3923,7 +3837,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3936,7 +3850,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3949,7 +3863,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -3962,25 +3876,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"for"</t>
+          <t>"("</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3988,81 +3902,81 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>call_stmt</t>
+          <t>"for"</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>for_stmt</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>stmt</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>for_stmt</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>2</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>stmt_list</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"("</t>
+          <t>stmt_list</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4071,11 +3985,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"="</t>
+          <t>args?</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4084,11 +3998,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>args?</t>
+          <t>"="</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4101,7 +4015,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>")"</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4114,7 +4028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>")"</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4127,7 +4041,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"to"</t>
+          <t>";"</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4140,7 +4054,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>";"</t>
+          <t>"to"</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4149,7 +4063,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>

--- a/ParserCodes/slr_analysis.xlsx
+++ b/ParserCodes/slr_analysis.xlsx
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>[call_stmt → ID · "(" args? ")" ";"]</t>
+          <t>[stmt → call_stmt ·]</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>[stmt → call_stmt ·]</t>
+          <t>[programBar → program ·]</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";"]</t>
+          <t>[call_stmt → ID · "(" args? ")" ";"]</t>
         </is>
       </c>
     </row>
@@ -1233,25 +1233,13 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" ht="120" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>State 6</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
-        <is>
-          <t>[programBar → program ·]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="120" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>State 7</t>
-        </is>
-      </c>
-      <c r="B9" s="11" t="inlineStr">
         <is>
           <t>[call_stmt → · ID "(" args? ")" ";"]
 [for_stmt → · "for" ID "=" NUMBER "to" NUMBER ";"]
@@ -1264,6 +1252,18 @@
         </is>
       </c>
     </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>State 7</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";"]</t>
+        </is>
+      </c>
+    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>[for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";"]</t>
+          <t>[stmt_list → stmt stmt_list ·]</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>[stmt_list → stmt stmt_list ·]</t>
+          <t>[for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";"]</t>
         </is>
       </c>
     </row>
@@ -1529,27 +1529,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>s4</t>
-        </is>
-      </c>
-      <c r="G2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>s1</t>
         </is>
       </c>
       <c r="K2" s="13" t="inlineStr">
@@ -1577,9 +1577,9 @@
       <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>s8</t>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -1597,9 +1597,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F3" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
       <c r="G3" s="13" t="inlineStr">
@@ -1607,9 +1607,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H3" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
       <c r="I3" s="13" t="inlineStr">
@@ -1617,9 +1617,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J3" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>r7</t>
         </is>
       </c>
       <c r="K3" s="13" t="inlineStr">
@@ -1737,9 +1737,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>r7</t>
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G5" s="13" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>r7</t>
+          <t>accept</t>
         </is>
       </c>
       <c r="I5" s="13" t="inlineStr">
@@ -1757,9 +1757,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>r7</t>
+      <c r="J5" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K5" s="13" t="inlineStr">
@@ -1787,9 +1787,9 @@
       <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s8</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -1827,9 +1827,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>s9</t>
+      <c r="J6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K6" s="13" t="inlineStr">
@@ -1947,9 +1947,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s7</t>
         </is>
       </c>
       <c r="G8" s="13" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>accept</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="I8" s="13" t="inlineStr">
@@ -1967,9 +1967,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>s4</t>
         </is>
       </c>
       <c r="K8" s="13" t="inlineStr">
@@ -2017,9 +2017,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s4</t>
+      <c r="F9" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G9" s="13" t="inlineStr">
@@ -2027,9 +2027,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>r8</t>
+      <c r="H9" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" s="13" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="K9" s="13" t="inlineStr">
@@ -2152,9 +2152,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s12</t>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
@@ -2167,9 +2167,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H11" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>r9</t>
         </is>
       </c>
       <c r="I11" s="13" t="inlineStr">
@@ -2222,9 +2222,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s12</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
@@ -2237,9 +2237,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>r9</t>
+      <c r="H12" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" s="13" t="inlineStr">
@@ -2925,21 +2925,21 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="G2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -3184,15 +3184,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
       </c>
       <c r="F8" s="13" t="inlineStr">
         <is>
@@ -3204,15 +3200,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -3229,11 +3221,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
+      <c r="D9" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F9" s="13" t="inlineStr">
         <is>
@@ -3245,11 +3241,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10</v>
+      <c r="H9" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3863,7 +3863,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3881,7 +3881,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -3894,24 +3894,24 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>"for"</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"for"</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3920,11 +3920,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3933,41 +3933,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>call_stmt</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>for_stmt</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stmt</t>
+          <t>stmt_list</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>stmt_list</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3998,7 +3998,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
